--- a/teamsdata.xlsx
+++ b/teamsdata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC85BB-EF8F-4068-AA16-BDD7829B6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC7ED9-53E9-4CE5-929F-43C086AC09EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樂天桃猿" sheetId="1" r:id="rId1"/>
     <sheet name="中信兄弟" sheetId="2" r:id="rId2"/>
     <sheet name="富邦悍將" sheetId="3" r:id="rId3"/>
-    <sheet name="味全龍" sheetId="4" r:id="rId4"/>
+    <sheet name="Dragons" sheetId="4" r:id="rId4"/>
     <sheet name="統一7-ELEVEn獅" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1720,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D67647-F9D6-4BE6-8639-842CD79FB171}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1850,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B79EAEC-11D9-4F1D-A6EA-A2C12FB6BF93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>

--- a/teamsdata.xlsx
+++ b/teamsdata.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC7ED9-53E9-4CE5-929F-43C086AC09EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3285C9-987E-4EFC-AD51-02C0B35BE634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樂天桃猿" sheetId="1" r:id="rId1"/>
     <sheet name="中信兄弟" sheetId="2" r:id="rId2"/>
     <sheet name="富邦悍將" sheetId="3" r:id="rId3"/>
     <sheet name="Dragons" sheetId="4" r:id="rId4"/>
-    <sheet name="統一7-ELEVEn獅" sheetId="5" r:id="rId5"/>
+    <sheet name="台鋼雄鷹" sheetId="6" r:id="rId5"/>
+    <sheet name="統一7-ELEVEn獅" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>年度</t>
   </si>
@@ -113,6 +114,14 @@
   </si>
   <si>
     <t>2014(上)</t>
+  </si>
+  <si>
+    <t>2023(下)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023(上)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -662,7 +671,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1720,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D67647-F9D6-4BE6-8639-842CD79FB171}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1847,11 +1856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B79EAEC-11D9-4F1D-A6EA-A2C12FB6BF93}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07D107E-09B8-4E5B-9766-2B18D6387F07}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1896,6 +1905,71 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B79EAEC-11D9-4F1D-A6EA-A2C12FB6BF93}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">

--- a/teamsdata.xlsx
+++ b/teamsdata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3285C9-987E-4EFC-AD51-02C0B35BE634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C48D33-0BB4-49E8-8189-779B662550BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樂天桃猿" sheetId="1" r:id="rId1"/>
     <sheet name="中信兄弟" sheetId="2" r:id="rId2"/>
     <sheet name="富邦悍將" sheetId="3" r:id="rId3"/>
-    <sheet name="Dragons" sheetId="4" r:id="rId4"/>
+    <sheet name="味全龍" sheetId="4" r:id="rId4"/>
     <sheet name="台鋼雄鷹" sheetId="6" r:id="rId5"/>
     <sheet name="統一7-ELEVEn獅" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -1729,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D67647-F9D6-4BE6-8639-842CD79FB171}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1859,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07D107E-09B8-4E5B-9766-2B18D6387F07}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
